--- a/Result.xlsx
+++ b/Result.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hyeockjin/MOMProject/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3C9E8DB-0ABD-4B4A-A4BD-882034F1EACE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DC3127E-751A-A24B-AA3D-84B7D085BC52}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="49180" yWindow="-2600" windowWidth="28300" windowHeight="16940" activeTab="2" xr2:uid="{A1D2AACC-87E8-D346-B9AA-E6133B317492}"/>
+    <workbookView xWindow="49180" yWindow="-2600" windowWidth="28300" windowHeight="16940" activeTab="5" xr2:uid="{A1D2AACC-87E8-D346-B9AA-E6133B317492}"/>
   </bookViews>
   <sheets>
     <sheet name="Producers" sheetId="5" r:id="rId1"/>
@@ -628,8 +628,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DF90DF4-558F-0941-9BDA-A8734547B4FE}">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -981,126 +981,136 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F68ABE95-5E1A-B54C-A857-5F469131FC98}">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1">
-        <v>2375</v>
+        <v>1377</v>
       </c>
       <c r="B1">
-        <v>2675</v>
+        <v>1684</v>
       </c>
       <c r="C1">
-        <v>278</v>
+        <f>A1-B1</f>
+        <v>-307</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>2187</v>
+        <v>1366</v>
       </c>
       <c r="B2">
-        <v>2483</v>
+        <v>1652</v>
       </c>
       <c r="C2">
-        <v>322</v>
+        <f t="shared" ref="C2:C10" si="0">A2-B2</f>
+        <v>-286</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>2532</v>
+        <v>1355</v>
       </c>
       <c r="B3">
-        <v>2794</v>
+        <v>1669</v>
       </c>
       <c r="C3">
-        <v>270</v>
+        <f t="shared" si="0"/>
+        <v>-314</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>2363</v>
+        <v>1359</v>
       </c>
       <c r="B4">
-        <v>2675</v>
+        <v>1667</v>
       </c>
       <c r="C4">
-        <v>264</v>
+        <f t="shared" si="0"/>
+        <v>-308</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>2860</v>
+        <v>1412</v>
       </c>
       <c r="B5">
-        <v>3158</v>
+        <v>1715</v>
       </c>
       <c r="C5">
-        <v>276</v>
+        <f t="shared" si="0"/>
+        <v>-303</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>2669</v>
+        <v>1312</v>
       </c>
       <c r="B6">
-        <v>3003</v>
+        <v>1616</v>
       </c>
       <c r="C6">
-        <v>306</v>
+        <f t="shared" si="0"/>
+        <v>-304</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>2141</v>
+        <v>1386</v>
       </c>
       <c r="B7">
-        <v>2437</v>
+        <v>1675</v>
       </c>
       <c r="C7">
-        <v>290</v>
+        <f t="shared" si="0"/>
+        <v>-289</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
-        <v>2250</v>
+        <v>1333</v>
       </c>
       <c r="B8">
-        <v>2528</v>
+        <v>1603</v>
       </c>
       <c r="C8">
-        <v>334</v>
+        <f t="shared" si="0"/>
+        <v>-270</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
-        <v>2215</v>
+        <v>1359</v>
       </c>
       <c r="B9">
-        <v>2545</v>
+        <v>1663</v>
       </c>
       <c r="C9">
-        <v>346</v>
+        <f t="shared" si="0"/>
+        <v>-304</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
-        <v>2408</v>
+        <v>1363</v>
       </c>
       <c r="B10">
-        <v>2702</v>
+        <v>1678</v>
       </c>
       <c r="C10">
-        <v>314</v>
+        <f t="shared" si="0"/>
+        <v>-315</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="C11">
         <f>SUM(C1:C10)</f>
-        <v>3000</v>
+        <v>-3000</v>
       </c>
     </row>
   </sheetData>

--- a/Result.xlsx
+++ b/Result.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hyeockjin/MOMProject/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DC3127E-751A-A24B-AA3D-84B7D085BC52}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69BE7124-4536-A04C-A4B8-459A62520323}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="49180" yWindow="-2600" windowWidth="28300" windowHeight="16940" activeTab="5" xr2:uid="{A1D2AACC-87E8-D346-B9AA-E6133B317492}"/>
+    <workbookView xWindow="28800" yWindow="-10300" windowWidth="25600" windowHeight="28300" activeTab="3" xr2:uid="{A1D2AACC-87E8-D346-B9AA-E6133B317492}"/>
   </bookViews>
   <sheets>
     <sheet name="Producers" sheetId="5" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="RabbitMQ" sheetId="4" r:id="rId5"/>
     <sheet name="Sheet6" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="29">
   <si>
     <t>1회차</t>
   </si>
@@ -134,6 +134,10 @@
   </si>
   <si>
     <t>RunningTime(sec)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t># of Task</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -518,7 +522,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C52" sqref="C52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -551,7 +555,7 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>442</v>
+        <v>432</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -575,7 +579,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="E14" sqref="E14:E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -607,6 +611,9 @@
       <c r="A2" t="s">
         <v>10</v>
       </c>
+      <c r="B2">
+        <v>17043</v>
+      </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
@@ -626,10 +633,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DF90DF4-558F-0941-9BDA-A8734547B4FE}">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -662,7 +669,7 @@
         <v>14</v>
       </c>
       <c r="B2">
-        <v>15691</v>
+        <v>17043</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -670,7 +677,7 @@
         <v>16</v>
       </c>
       <c r="B3">
-        <v>17136</v>
+        <v>14421</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -678,7 +685,7 @@
         <v>17</v>
       </c>
       <c r="B4">
-        <v>16757</v>
+        <v>14010</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -686,7 +693,7 @@
         <v>18</v>
       </c>
       <c r="B5">
-        <v>14264</v>
+        <v>14226</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -694,7 +701,7 @@
         <v>19</v>
       </c>
       <c r="B6">
-        <v>15279</v>
+        <v>15088</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -702,7 +709,7 @@
         <v>20</v>
       </c>
       <c r="B7">
-        <v>13033</v>
+        <v>13802</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -710,7 +717,7 @@
         <v>21</v>
       </c>
       <c r="B8">
-        <v>12627</v>
+        <v>14573</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -718,7 +725,7 @@
         <v>22</v>
       </c>
       <c r="B9">
-        <v>13278</v>
+        <v>16197</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -726,7 +733,7 @@
         <v>23</v>
       </c>
       <c r="B10">
-        <v>15902</v>
+        <v>15241</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -734,13 +741,165 @@
         <v>24</v>
       </c>
       <c r="B11">
-        <v>13707</v>
+        <v>16013</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="B12">
         <f>MAX(B2:B11)</f>
-        <v>17136</v>
+        <v>17043</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>323</v>
+      </c>
+      <c r="C15">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16">
+        <v>287</v>
+      </c>
+      <c r="C16">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17">
+        <v>273</v>
+      </c>
+      <c r="C17">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18">
+        <v>293</v>
+      </c>
+      <c r="C18">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19">
+        <v>309</v>
+      </c>
+      <c r="C19">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20">
+        <v>269</v>
+      </c>
+      <c r="C20">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21">
+        <v>321</v>
+      </c>
+      <c r="C21">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22">
+        <v>299</v>
+      </c>
+      <c r="C22">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23">
+        <v>321</v>
+      </c>
+      <c r="C23">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24">
+        <v>305</v>
+      </c>
+      <c r="C24">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="B25">
+        <f>SUM(B15:B24)</f>
+        <v>3000</v>
+      </c>
+      <c r="C25">
+        <f t="shared" ref="C25:F25" si="0">SUM(C15:C24)</f>
+        <v>3000</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -753,8 +912,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42ADCC42-3169-F248-8324-BA893092E6C3}">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J51" sqref="J51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -981,7 +1140,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F68ABE95-5E1A-B54C-A857-5F469131FC98}">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>

--- a/Result.xlsx
+++ b/Result.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hyeockjin/MOMProject/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69BE7124-4536-A04C-A4B8-459A62520323}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56AA6367-BF77-FF43-96E1-B338BAA649E3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="-10300" windowWidth="25600" windowHeight="28300" activeTab="3" xr2:uid="{A1D2AACC-87E8-D346-B9AA-E6133B317492}"/>
+    <workbookView xWindow="28800" yWindow="-10300" windowWidth="25600" windowHeight="28300" activeTab="2" xr2:uid="{A1D2AACC-87E8-D346-B9AA-E6133B317492}"/>
   </bookViews>
   <sheets>
     <sheet name="Producers" sheetId="5" r:id="rId1"/>
@@ -39,23 +39,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="29">
-  <si>
-    <t>1회차</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="29">
   <si>
     <t>1회차</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>2회차</t>
-  </si>
-  <si>
-    <t>2회차</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3회차</t>
   </si>
   <si>
     <t>3회차</t>
@@ -63,13 +54,7 @@
   </si>
   <si>
     <t>4회차</t>
-  </si>
-  <si>
-    <t>4회차</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5회차</t>
   </si>
   <si>
     <t>5회차</t>
@@ -89,13 +74,7 @@
   </si>
   <si>
     <t>executor 1</t>
-  </si>
-  <si>
-    <t>executor 1</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>executor 2</t>
   </si>
   <si>
     <t>executor 2</t>
@@ -131,13 +110,42 @@
   </si>
   <si>
     <t>RunningTime(sec)</t>
-  </si>
-  <si>
-    <t>RunningTime(sec)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t># of Task</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최대값</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Makespan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Makespan(sec)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Consumer Start Time(ms)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Consumer End Time(ms)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Total Task</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Min Value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Max Value</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -145,7 +153,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="2">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -161,21 +169,25 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -196,13 +208,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -522,7 +534,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C52" sqref="C52"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -530,42 +542,45 @@
     <col min="1" max="1" width="21.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="3" customFormat="1">
-      <c r="A1" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B1" s="3" t="s">
+    <row r="1" spans="1:6" s="1" customFormat="1">
+      <c r="A1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>9</v>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>432</v>
+        <v>454</v>
+      </c>
+      <c r="C2">
+        <v>444</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -579,7 +594,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14:E15"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -587,42 +602,45 @@
     <col min="1" max="1" width="21.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="3" customFormat="1">
-      <c r="A1" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B1" s="3" t="s">
+    <row r="1" spans="1:6" s="1" customFormat="1">
+      <c r="A1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>9</v>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>17043</v>
+        <v>17559</v>
+      </c>
+      <c r="C2">
+        <v>16790</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -633,272 +651,838 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DF90DF4-558F-0941-9BDA-A8734547B4FE}">
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" width="21.42578125" customWidth="1"/>
+    <col min="2" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="3" customFormat="1">
-      <c r="A1" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B1" s="3" t="s">
+    <row r="1" spans="1:6" s="1" customFormat="1">
+      <c r="A1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>9</v>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B2">
-        <v>17043</v>
+        <f>B42-B29</f>
+        <v>13907</v>
+      </c>
+      <c r="C2">
+        <f>C42-C29</f>
+        <v>13227</v>
+      </c>
+      <c r="D2">
+        <f>D42-D29</f>
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <f>E42-E29</f>
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <f>F42-F29</f>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B3">
-        <v>14421</v>
+        <f>B43-B30</f>
+        <v>12722</v>
+      </c>
+      <c r="C3">
+        <f>C43-C30</f>
+        <v>14628</v>
+      </c>
+      <c r="D3">
+        <f>D43-D30</f>
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <f>E43-E30</f>
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <f>F43-F30</f>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B4">
-        <v>14010</v>
+        <f>B44-B31</f>
+        <v>16251</v>
+      </c>
+      <c r="C4">
+        <f>C44-C31</f>
+        <v>14850</v>
+      </c>
+      <c r="D4">
+        <f>D44-D31</f>
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <f>E44-E31</f>
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <f>F44-F31</f>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B5">
-        <v>14226</v>
+        <f>B45-B32</f>
+        <v>15046</v>
+      </c>
+      <c r="C5">
+        <f>C45-C32</f>
+        <v>15247</v>
+      </c>
+      <c r="D5">
+        <f>D45-D32</f>
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <f>E45-E32</f>
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <f>F45-F32</f>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="B6">
-        <v>15088</v>
+        <f>B46-B33</f>
+        <v>15686</v>
+      </c>
+      <c r="C6">
+        <f>C46-C33</f>
+        <v>14949</v>
+      </c>
+      <c r="D6">
+        <f>D46-D33</f>
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <f>E46-E33</f>
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <f>F46-F33</f>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="B7">
-        <v>13802</v>
+        <f>B47-B34</f>
+        <v>14778</v>
+      </c>
+      <c r="C7">
+        <f>C47-C34</f>
+        <v>15185</v>
+      </c>
+      <c r="D7">
+        <f>D47-D34</f>
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <f>E47-E34</f>
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <f>F47-F34</f>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B8">
-        <v>14573</v>
+        <f>B48-B35</f>
+        <v>11376</v>
+      </c>
+      <c r="C8">
+        <f>C48-C35</f>
+        <v>14664</v>
+      </c>
+      <c r="D8">
+        <f>D48-D35</f>
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <f>E48-E35</f>
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <f>F48-F35</f>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B9">
-        <v>16197</v>
+        <f>B49-B36</f>
+        <v>14885</v>
+      </c>
+      <c r="C9">
+        <f>C49-C36</f>
+        <v>16690</v>
+      </c>
+      <c r="D9">
+        <f>D49-D36</f>
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <f>E49-E36</f>
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <f>F49-F36</f>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="B10">
-        <v>15241</v>
+        <f>B50-B37</f>
+        <v>17449</v>
+      </c>
+      <c r="C10">
+        <f>C50-C37</f>
+        <v>16169</v>
+      </c>
+      <c r="D10">
+        <f>D50-D37</f>
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <f>E50-E37</f>
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <f>F50-F37</f>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B11">
-        <v>16013</v>
+        <f>B51-B38</f>
+        <v>15789</v>
+      </c>
+      <c r="C11">
+        <f>C51-C38</f>
+        <v>15008</v>
+      </c>
+      <c r="D11">
+        <f>D51-D38</f>
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <f>E51-E38</f>
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <f>F51-F38</f>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:6">
+      <c r="A12" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="B12">
         <f>MAX(B2:B11)</f>
-        <v>17043</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B14" s="3" t="s">
+        <v>17449</v>
+      </c>
+      <c r="C12">
+        <f t="shared" ref="C12:F12" si="0">MAX(C2:C11)</f>
+        <v>16690</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13">
+        <f>B52-B39</f>
+        <v>17559</v>
+      </c>
+      <c r="C13">
+        <f>C52-C39</f>
+        <v>16790</v>
+      </c>
+      <c r="D13">
+        <f>D52-D39</f>
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <f>E52-E39</f>
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <f>F52-F39</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="D15" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15">
-        <v>323</v>
-      </c>
-      <c r="C15">
-        <v>276</v>
+      <c r="F15" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B16">
-        <v>287</v>
+        <v>316</v>
       </c>
       <c r="C16">
-        <v>312</v>
+        <v>310</v>
+      </c>
+      <c r="D16">
+        <v>338</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B17">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="C17">
-        <v>292</v>
+        <v>314</v>
+      </c>
+      <c r="D17">
+        <v>312</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B18">
-        <v>293</v>
+        <v>312</v>
       </c>
       <c r="C18">
-        <v>298</v>
+        <v>318</v>
+      </c>
+      <c r="D18">
+        <v>296</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="B19">
-        <v>309</v>
+        <v>298</v>
       </c>
       <c r="C19">
-        <v>312</v>
+        <v>290</v>
+      </c>
+      <c r="D19">
+        <v>310</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B20">
-        <v>269</v>
+        <v>322</v>
       </c>
       <c r="C20">
-        <v>318</v>
+        <v>310</v>
+      </c>
+      <c r="D20">
+        <v>256</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="B21">
-        <v>321</v>
+        <v>290</v>
       </c>
       <c r="C21">
-        <v>274</v>
+        <v>294</v>
+      </c>
+      <c r="D21">
+        <v>318</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="B22">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="C22">
-        <v>290</v>
+        <v>304</v>
+      </c>
+      <c r="D22">
+        <v>310</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="B23">
-        <v>321</v>
+        <v>272</v>
       </c>
       <c r="C23">
-        <v>328</v>
+        <v>288</v>
+      </c>
+      <c r="D23">
+        <v>262</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" t="s">
+        <v>16</v>
+      </c>
+      <c r="B24">
+        <v>296</v>
+      </c>
+      <c r="C24">
+        <v>306</v>
+      </c>
+      <c r="D24">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" t="s">
+        <v>17</v>
+      </c>
+      <c r="B25">
+        <v>324</v>
+      </c>
+      <c r="C25">
+        <v>266</v>
+      </c>
+      <c r="D25">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26">
+        <f>SUM(B16:B25)</f>
+        <v>3000</v>
+      </c>
+      <c r="C26">
+        <f t="shared" ref="C26:F26" si="1">SUM(C16:C25)</f>
+        <v>3000</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="1"/>
+        <v>3000</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B24">
-        <v>305</v>
-      </c>
-      <c r="C24">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="B25">
-        <f>SUM(B15:B24)</f>
-        <v>3000</v>
-      </c>
-      <c r="C25">
-        <f t="shared" ref="C25:F25" si="0">SUM(C15:C24)</f>
-        <v>3000</v>
-      </c>
-      <c r="D25">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E25">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F25">
-        <f t="shared" si="0"/>
+      <c r="B28" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" t="s">
+        <v>8</v>
+      </c>
+      <c r="B29">
+        <v>1618390221</v>
+      </c>
+      <c r="C29">
+        <v>1618412891</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" t="s">
+        <v>9</v>
+      </c>
+      <c r="B30">
+        <v>1618390228</v>
+      </c>
+      <c r="C30">
+        <v>1618412905</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" t="s">
+        <v>10</v>
+      </c>
+      <c r="B31">
+        <v>1618390271</v>
+      </c>
+      <c r="C31">
+        <v>1618412926</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" t="s">
+        <v>11</v>
+      </c>
+      <c r="B32">
+        <v>1618390282</v>
+      </c>
+      <c r="C32">
+        <v>1618412933</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" t="s">
+        <v>12</v>
+      </c>
+      <c r="B33">
+        <v>1618390289</v>
+      </c>
+      <c r="C33">
+        <v>1618412939</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" t="s">
+        <v>13</v>
+      </c>
+      <c r="B34">
+        <v>1618390295</v>
+      </c>
+      <c r="C34">
+        <v>1618412947</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" t="s">
+        <v>14</v>
+      </c>
+      <c r="B35">
+        <v>1618393018</v>
+      </c>
+      <c r="C35">
+        <v>1618412985</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" t="s">
+        <v>15</v>
+      </c>
+      <c r="B36">
+        <v>1618390325</v>
+      </c>
+      <c r="C36">
+        <v>1618412991</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" t="s">
+        <v>16</v>
+      </c>
+      <c r="B37">
+        <v>1618390331</v>
+      </c>
+      <c r="C37">
+        <v>1618412997</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" t="s">
+        <v>17</v>
+      </c>
+      <c r="B38">
+        <v>1618390339</v>
+      </c>
+      <c r="C38">
+        <v>1618413004</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B39">
+        <f>MIN(B29:B38)</f>
+        <v>1618390221</v>
+      </c>
+      <c r="C39">
+        <f t="shared" ref="C39:F39" si="2">MIN(C29:C38)</f>
+        <v>1618412891</v>
+      </c>
+      <c r="D39">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="1"/>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" t="s">
+        <v>8</v>
+      </c>
+      <c r="B42">
+        <v>1618404128</v>
+      </c>
+      <c r="C42">
+        <v>1618426118</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" t="s">
+        <v>9</v>
+      </c>
+      <c r="B43">
+        <v>1618402950</v>
+      </c>
+      <c r="C43">
+        <v>1618427533</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" t="s">
+        <v>10</v>
+      </c>
+      <c r="B44">
+        <v>1618406522</v>
+      </c>
+      <c r="C44">
+        <v>1618427776</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" t="s">
+        <v>11</v>
+      </c>
+      <c r="B45">
+        <v>1618405328</v>
+      </c>
+      <c r="C45">
+        <v>1618428180</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" t="s">
+        <v>12</v>
+      </c>
+      <c r="B46">
+        <v>1618405975</v>
+      </c>
+      <c r="C46">
+        <v>1618427888</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" t="s">
+        <v>13</v>
+      </c>
+      <c r="B47">
+        <v>1618405073</v>
+      </c>
+      <c r="C47">
+        <v>1618428132</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" t="s">
+        <v>14</v>
+      </c>
+      <c r="B48">
+        <v>1618404394</v>
+      </c>
+      <c r="C48">
+        <v>1618427649</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" t="s">
+        <v>15</v>
+      </c>
+      <c r="B49">
+        <v>1618405210</v>
+      </c>
+      <c r="C49">
+        <v>1618429681</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" t="s">
+        <v>16</v>
+      </c>
+      <c r="B50">
+        <v>1618407780</v>
+      </c>
+      <c r="C50">
+        <v>1618429166</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" t="s">
+        <v>17</v>
+      </c>
+      <c r="B51">
+        <v>1618406128</v>
+      </c>
+      <c r="C51">
+        <v>1618428012</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B52">
+        <f>MAX(B42:B51)</f>
+        <v>1618407780</v>
+      </c>
+      <c r="C52">
+        <f t="shared" ref="C52:F52" si="3">MAX(C42:C51)</f>
+        <v>1618429681</v>
+      </c>
+      <c r="D52">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -910,10 +1494,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42ADCC42-3169-F248-8324-BA893092E6C3}">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J51" sqref="J51"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L52" sqref="L52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -921,74 +1505,537 @@
     <col min="1" max="1" width="21.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="3" customFormat="1">
-      <c r="A1" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B1" s="3" t="s">
+    <row r="1" spans="1:6" s="1" customFormat="1">
+      <c r="A1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>9</v>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>8</v>
+      </c>
+      <c r="D2">
+        <f>D42-D29</f>
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <f>E42-E29</f>
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <f>F42-F29</f>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>9</v>
+      </c>
+      <c r="D3">
+        <f>D43-D30</f>
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <f>E43-E30</f>
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <f>F43-F30</f>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>10</v>
+      </c>
+      <c r="D4">
+        <f>D44-D31</f>
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <f>E44-E31</f>
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <f>F44-F31</f>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>11</v>
+      </c>
+      <c r="D5">
+        <f>D45-D32</f>
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <f>E45-E32</f>
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <f>F45-F32</f>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>12</v>
+      </c>
+      <c r="D6">
+        <f>D46-D33</f>
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <f>E46-E33</f>
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <f>F46-F33</f>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>13</v>
+      </c>
+      <c r="D7">
+        <f>D47-D34</f>
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <f>E47-E34</f>
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <f>F47-F34</f>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>14</v>
+      </c>
+      <c r="D8">
+        <f>D48-D35</f>
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <f>E48-E35</f>
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <f>F48-F35</f>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>15</v>
+      </c>
+      <c r="D9">
+        <f>D49-D36</f>
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <f>E49-E36</f>
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <f>F49-F36</f>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>16</v>
+      </c>
+      <c r="D10">
+        <f>D50-D37</f>
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <f>E50-E37</f>
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <f>F50-F37</f>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11">
+        <f>D51-D38</f>
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <f>E51-E38</f>
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <f>F51-F38</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12">
+        <f>MAX(B2:B11)</f>
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <f t="shared" ref="C12:F12" si="0">MAX(C2:C11)</f>
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13">
+        <f>B52-B39</f>
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <f>C52-C39</f>
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <f>D52-D39</f>
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <f>E52-E39</f>
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <f>F52-F39</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26">
+        <f>SUM(B16:B25)</f>
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <f t="shared" ref="C26:F26" si="1">SUM(C16:C25)</f>
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="1" t="s">
         <v>24</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B39">
+        <f>MIN(B29:B38)</f>
+        <v>0</v>
+      </c>
+      <c r="C39">
+        <f t="shared" ref="C39:F39" si="2">MIN(C29:C38)</f>
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="1"/>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B52">
+        <f>MAX(B42:B51)</f>
+        <v>0</v>
+      </c>
+      <c r="C52">
+        <f t="shared" ref="C52:F52" si="3">MAX(C42:C51)</f>
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -999,10 +2046,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F95C2FEE-0B2D-D742-99E0-73E3F5C09728}">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="B42" sqref="B42:C51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -1010,125 +2057,538 @@
     <col min="1" max="1" width="21.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="3" customFormat="1">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:6" s="1" customFormat="1">
+      <c r="A1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2">
+        <f>D42-D29</f>
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <f>E42-E29</f>
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <f>F42-F29</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3">
+        <f>D43-D30</f>
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <f>E43-E30</f>
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <f>F43-F30</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4">
+        <f>D44-D31</f>
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <f>E44-E31</f>
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <f>F44-F31</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5">
+        <f>D45-D32</f>
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <f>E45-E32</f>
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <f>F45-F32</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6">
+        <f>D46-D33</f>
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <f>E46-E33</f>
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <f>F46-F33</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7">
+        <f>D47-D34</f>
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <f>E47-E34</f>
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <f>F47-F34</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8">
+        <f>D48-D35</f>
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <f>E48-E35</f>
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <f>F48-F35</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9">
+        <f>D49-D36</f>
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <f>E49-E36</f>
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <f>F49-F36</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10">
+        <f>D50-D37</f>
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <f>E50-E37</f>
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <f>F50-F37</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11">
+        <f>D51-D38</f>
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <f>E51-E38</f>
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <f>F51-F38</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12">
+        <f>MAX(B2:B11)</f>
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <f t="shared" ref="C12:F12" si="0">MAX(C2:C11)</f>
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13">
+        <f>B52-B39</f>
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <f>C52-C39</f>
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <f>D52-D39</f>
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <f>E52-E39</f>
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <f>F52-F39</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="B26">
+        <f>SUM(B16:B25)</f>
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <f t="shared" ref="C26:F26" si="1">SUM(C16:C25)</f>
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D28" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F28" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" s="2" t="s">
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="1" t="s">
+    <row r="30" spans="1:6">
+      <c r="A30" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="1" t="s">
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="1" t="s">
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B39">
+        <f>MIN(B29:B38)</f>
+        <v>0</v>
+      </c>
+      <c r="C39">
+        <f t="shared" ref="C39:F39" si="2">MIN(C29:C38)</f>
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="1"/>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B52">
+        <f>MAX(B42:B51)</f>
+        <v>0</v>
+      </c>
+      <c r="C52">
+        <f t="shared" ref="C52:F52" si="3">MAX(C42:C51)</f>
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
